--- a/Excel Dataframes, EDA and Predictive Modelling/SerieA_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/SerieA_last10.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_home" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_away" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +447,82 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GC</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
         </is>
       </c>
     </row>
@@ -477,47 +533,113 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>14.843</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3.517</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>39</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
+        <v>15.696</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>99</v>
+      </c>
+      <c r="K3" t="n">
+        <v>55</v>
+      </c>
+      <c r="L3" t="n">
         <v>21</v>
       </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.1</v>
+      <c r="M3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -527,422 +649,2428 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>10.034</v>
       </c>
       <c r="D4" t="n">
+        <v>5.426</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
         <v>11</v>
       </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
+      <c r="H4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.443999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.323</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>81</v>
+      </c>
+      <c r="K5" t="n">
+        <v>59</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.021</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.958</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>78</v>
+      </c>
+      <c r="K6" t="n">
+        <v>63</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.987</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.807</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" t="n">
+        <v>77</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.358000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89</v>
+      </c>
+      <c r="K8" t="n">
+        <v>32</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.757</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>76</v>
+      </c>
+      <c r="K9" t="n">
+        <v>42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.436999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.434</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>43</v>
+      </c>
+      <c r="K11" t="n">
+        <v>38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.611</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.340999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>77</v>
+      </c>
+      <c r="K12" t="n">
+        <v>60</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.522</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>73</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.184</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>64</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.328999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>51</v>
+      </c>
+      <c r="K15" t="n">
+        <v>74</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.965999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>57</v>
+      </c>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.131</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>67</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.555</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.515000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>66</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.976</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.698</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>77</v>
+      </c>
+      <c r="K19" t="n">
+        <v>44</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.516999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.372999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>54</v>
+      </c>
+      <c r="K20" t="n">
+        <v>77</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.269</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>41</v>
+      </c>
+      <c r="K21" t="n">
+        <v>46</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.628</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.170999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>70</v>
+      </c>
+      <c r="K22" t="n">
+        <v>55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.093999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.965999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>63</v>
+      </c>
+      <c r="K23" t="n">
+        <v>87</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.223</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.443</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>78</v>
+      </c>
+      <c r="K24" t="n">
+        <v>83</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>18</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.572</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.319</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>65</v>
+      </c>
+      <c r="K2" t="n">
+        <v>59</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.537</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.625999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>78</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.382999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>77</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>6.569</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10.827</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>52</v>
+      </c>
+      <c r="K5" t="n">
+        <v>113</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>3.497</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>6.459</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>6.17</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>7.06</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50</v>
+      </c>
+      <c r="K7" t="n">
+        <v>77</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>6.335</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>6.109</v>
       </c>
       <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>19</v>
-      </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>6.623</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>70</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>4.263</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>7.296</v>
       </c>
       <c r="E10" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>-3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>48</v>
+      </c>
+      <c r="K10" t="n">
+        <v>71</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>4.868</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>5.786</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>1.061</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>8.827999999999999</v>
       </c>
       <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
         <v>-4</v>
       </c>
-      <c r="F12" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.4</v>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>70</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
+        <v>4.773000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.804</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>52</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
         <v>12</v>
       </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.3</v>
+      <c r="N13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.197</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.086</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>48</v>
+      </c>
+      <c r="K14" t="n">
+        <v>75</v>
+      </c>
+      <c r="L14" t="n">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.3</v>
+      <c r="M14" t="n">
+        <v>15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
+        <v>6.568000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.657</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J15" t="n">
+        <v>70</v>
+      </c>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
         <v>11</v>
       </c>
-      <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.3</v>
+      <c r="N15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.625</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
         <v>11</v>
       </c>
-      <c r="D16" t="n">
-        <v>13</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>49</v>
+      </c>
+      <c r="K16" t="n">
+        <v>85</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>6.489</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>7.444999999999999</v>
       </c>
       <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
         <v>-3</v>
       </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9</v>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>54</v>
+      </c>
+      <c r="K17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
+        <v>6.902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.960999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>73</v>
+      </c>
+      <c r="K18" t="n">
+        <v>80</v>
+      </c>
+      <c r="L18" t="n">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
-        <v>18</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-10</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="M18" t="n">
         <v>7</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.7</v>
+      <c r="N18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>4.125999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>10.274</v>
       </c>
       <c r="E19" t="n">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>52</v>
+      </c>
+      <c r="K19" t="n">
+        <v>82</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>2.572</v>
       </c>
       <c r="D20" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>106</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
         <v>19</v>
       </c>
-      <c r="E20" t="n">
-        <v>-11</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.5</v>
+      <c r="N20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -952,72 +3080,171 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>5.089</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>14.332</v>
       </c>
       <c r="E21" t="n">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>-12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>48</v>
+      </c>
+      <c r="K21" t="n">
+        <v>89</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>18</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>5.046</v>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>8.866</v>
       </c>
       <c r="E22" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>-5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>49</v>
+      </c>
+      <c r="K22" t="n">
+        <v>66</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>7.646</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>11.288</v>
       </c>
       <c r="E23" t="n">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>-11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>78</v>
+      </c>
+      <c r="K23" t="n">
+        <v>92</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +3254,55 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.141</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.098000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>58</v>
+      </c>
+      <c r="K24" t="n">
+        <v>91</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>24</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-16</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4</v>
+      <c r="N24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/SerieA_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/SerieA_last10.xlsx
@@ -536,19 +536,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>14.843</v>
+        <v>14.45</v>
       </c>
       <c r="D2" t="n">
-        <v>3.517</v>
+        <v>4.057</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
         <v>15</v>
@@ -557,25 +557,25 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" t="n">
         <v>22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -587,102 +587,102 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>15.696</v>
+        <v>9.047000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>5.55</v>
+        <v>3.832</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
-        <v>15</v>
-      </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>10.034</v>
+        <v>16.93</v>
       </c>
       <c r="D4" t="n">
-        <v>5.426</v>
+        <v>7.134</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>110</v>
+      </c>
+      <c r="K4" t="n">
+        <v>66</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22</v>
+      </c>
+      <c r="M4" t="n">
         <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J4" t="n">
-        <v>95</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
       </c>
       <c r="N4" t="n">
         <v>0.33</v>
@@ -694,10 +694,10 @@
         <v>0.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -761,84 +761,84 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.021</v>
+        <v>10.619</v>
       </c>
       <c r="D6" t="n">
-        <v>4.958</v>
+        <v>4.755</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>103</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" t="n">
         <v>13</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>78</v>
-      </c>
-      <c r="K6" t="n">
-        <v>63</v>
-      </c>
-      <c r="L6" t="n">
-        <v>18</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="R6" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4.987</v>
+        <v>7.644</v>
       </c>
       <c r="D7" t="n">
-        <v>5.807</v>
+        <v>3.182</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -847,25 +847,25 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
         <v>0.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8</v>
@@ -877,84 +877,84 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>8.358000000000001</v>
+        <v>4.987</v>
       </c>
       <c r="D8" t="n">
-        <v>2.719</v>
+        <v>5.807</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>11.757</v>
+        <v>9.937999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>4.141</v>
+        <v>4.507</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -963,56 +963,56 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K9" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>7.644</v>
+        <v>11.757</v>
       </c>
       <c r="D10" t="n">
-        <v>3.182</v>
+        <v>4.141</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -1021,114 +1021,114 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K10" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O10" t="n">
         <v>0.2</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4.436999999999999</v>
+        <v>7.415</v>
       </c>
       <c r="D11" t="n">
-        <v>3.434</v>
+        <v>2.732</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>67</v>
+      </c>
+      <c r="K11" t="n">
+        <v>42</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>43</v>
-      </c>
-      <c r="K11" t="n">
-        <v>38</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
       <c r="N11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R11" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>5.611</v>
+        <v>5.734</v>
       </c>
       <c r="D12" t="n">
-        <v>8.340999999999999</v>
+        <v>5.335</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>8</v>
@@ -1137,16 +1137,16 @@
         <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
         <v>0.6</v>
@@ -1155,38 +1155,38 @@
         <v>0.2</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>7.522</v>
+        <v>5.611</v>
       </c>
       <c r="D13" t="n">
-        <v>2.954</v>
+        <v>8.340999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>8</v>
@@ -1195,74 +1195,74 @@
         <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>6.216</v>
+        <v>4.992</v>
       </c>
       <c r="D14" t="n">
-        <v>6.184</v>
+        <v>9.268000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J14" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
         <v>0.6</v>
@@ -1271,38 +1271,38 @@
         <v>0.2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>4.64</v>
+        <v>6.036</v>
       </c>
       <c r="D15" t="n">
-        <v>9.328999999999999</v>
+        <v>4.309</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>7</v>
@@ -1311,16 +1311,16 @@
         <v>1.4</v>
       </c>
       <c r="J15" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
         <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10</v>
       </c>
       <c r="N15" t="n">
         <v>0.4</v>
@@ -1406,19 +1406,19 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>5.131</v>
+        <v>5.987</v>
       </c>
       <c r="D17" t="n">
-        <v>6.057</v>
+        <v>4.327</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K17" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>0.2</v>
@@ -1457,84 +1457,84 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>5.555</v>
+        <v>3.346</v>
       </c>
       <c r="D18" t="n">
-        <v>6.515000000000001</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>4.976</v>
+        <v>5.555</v>
       </c>
       <c r="D19" t="n">
-        <v>4.698</v>
+        <v>6.515000000000001</v>
       </c>
       <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
         <v>7</v>
       </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -1543,205 +1543,205 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K19" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O19" t="n">
         <v>0.2</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>5.516999999999999</v>
+        <v>6.959</v>
       </c>
       <c r="D20" t="n">
-        <v>9.372999999999999</v>
+        <v>5.538</v>
       </c>
       <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
-      <c r="F20" t="n">
-        <v>12</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
       <c r="I20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="K20" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.670999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
-        <v>5.269</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.571</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>76</v>
+      </c>
+      <c r="K21" t="n">
+        <v>53</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
         <v>9</v>
       </c>
-      <c r="G21" t="n">
-        <v>-7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>41</v>
-      </c>
-      <c r="K21" t="n">
-        <v>46</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>10</v>
-      </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O21" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="P21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>7.628</v>
+        <v>5.269</v>
       </c>
       <c r="D22" t="n">
-        <v>7.170999999999999</v>
+        <v>6.571</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K22" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
@@ -1809,55 +1809,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>6.223</v>
+        <v>5.053</v>
       </c>
       <c r="D24" t="n">
-        <v>12.443</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
         <v>-7</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K24" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O24" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="R24" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2039,46 +2039,46 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>10.537</v>
+        <v>8.23</v>
       </c>
       <c r="D3" t="n">
-        <v>5.625999999999999</v>
+        <v>6.055</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>71</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58</v>
+      </c>
+      <c r="L3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>78</v>
-      </c>
-      <c r="K3" t="n">
-        <v>66</v>
-      </c>
-      <c r="L3" t="n">
-        <v>15</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
         <v>0.8</v>
@@ -2090,45 +2090,45 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>8.382999999999999</v>
+        <v>6.848</v>
       </c>
       <c r="D4" t="n">
-        <v>4.18</v>
+        <v>7.639</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="K4" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
         <v>9</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
       <c r="N4" t="n">
         <v>0.6</v>
       </c>
@@ -2139,10 +2139,10 @@
         <v>0.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -2152,138 +2152,138 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6.569</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="n">
-        <v>10.827</v>
+        <v>10.167</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K5" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.497</v>
+        <v>6.17</v>
       </c>
       <c r="D6" t="n">
-        <v>6.459</v>
+        <v>7.06</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>77</v>
+      </c>
+      <c r="L6" t="n">
         <v>9</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>38</v>
-      </c>
-      <c r="K6" t="n">
-        <v>84</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6.17</v>
+        <v>6.335</v>
       </c>
       <c r="D7" t="n">
-        <v>7.06</v>
+        <v>6.109</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -2292,74 +2292,74 @@
         <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K7" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
         <v>0.4</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>6.335</v>
+        <v>6.357</v>
       </c>
       <c r="D8" t="n">
-        <v>6.109</v>
+        <v>8.038</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
         <v>0.8</v>
@@ -2368,212 +2368,212 @@
         <v>0.2</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.4</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4.951000000000001</v>
+        <v>9.144</v>
       </c>
       <c r="D9" t="n">
-        <v>6.623</v>
+        <v>5.945</v>
       </c>
       <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
         <v>6</v>
       </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J9" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="K9" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.263</v>
+        <v>5.603</v>
       </c>
       <c r="D10" t="n">
-        <v>7.296</v>
+        <v>8.099</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J10" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K10" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4.868</v>
+        <v>3.794</v>
       </c>
       <c r="D11" t="n">
-        <v>5.786</v>
+        <v>7.192</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K11" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P11" t="n">
         <v>0.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1.061</v>
+        <v>3.343</v>
       </c>
       <c r="D12" t="n">
-        <v>8.827999999999999</v>
+        <v>6.627000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -2582,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
         <v>0.25</v>
@@ -2600,96 +2600,96 @@
         <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q12" t="n">
         <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>4.773000000000001</v>
+        <v>4.868</v>
       </c>
       <c r="D13" t="n">
-        <v>6.804</v>
+        <v>5.786</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>7.197</v>
+        <v>3.356</v>
       </c>
       <c r="D14" t="n">
-        <v>9.086</v>
+        <v>10.803</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
@@ -2701,22 +2701,22 @@
         <v>48</v>
       </c>
       <c r="K14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
         <v>0.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.4</v>
@@ -2728,142 +2728,142 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>6.568000000000001</v>
+        <v>1.901</v>
       </c>
       <c r="D15" t="n">
-        <v>7.657</v>
+        <v>10.811</v>
       </c>
       <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
       <c r="G15" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
       <c r="R15" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.59</v>
+        <v>6.117</v>
       </c>
       <c r="D16" t="n">
-        <v>10.625</v>
+        <v>5.574</v>
       </c>
       <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="F16" t="n">
-        <v>11</v>
-      </c>
       <c r="G16" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K16" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
         <v>0.2</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>6.489</v>
+        <v>3.59</v>
       </c>
       <c r="D17" t="n">
-        <v>7.444999999999999</v>
+        <v>10.625</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -2872,31 +2872,31 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K17" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O17" t="n">
         <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
@@ -2960,26 +2960,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>4.125999999999999</v>
+        <v>5.229</v>
       </c>
       <c r="D19" t="n">
-        <v>10.274</v>
+        <v>7.343</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2988,31 +2988,31 @@
         <v>0.4</v>
       </c>
       <c r="J19" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K19" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -3199,43 +3199,43 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>7.646</v>
+        <v>7.813000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>11.288</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>12</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-11</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J23" t="n">
         <v>78</v>
       </c>
       <c r="K23" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L23" t="n">
         <v>12</v>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N23" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>4.141</v>
+        <v>4.501</v>
       </c>
       <c r="D24" t="n">
-        <v>9.098000000000001</v>
+        <v>9.603</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3278,31 +3278,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K24" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
